--- a/templates/QARSF/AR.xlsx
+++ b/templates/QARSF/AR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_AutomationOrg\rsqasampleproj\templates\QARSF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_Automation\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C807B064-AA82-4B1D-B1A3-47A2DC6D5546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8726A7B9-249E-4968-9B0B-A795F7BD4E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="761" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" tabRatio="761" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddHeader" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="79">
   <si>
     <t>API Mode</t>
   </si>
@@ -785,7 +785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7196E30F-7E05-4F92-8CE8-81C7DA39C270}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="P2" sqref="P2:P9"/>
     </sheetView>
   </sheetViews>
@@ -1825,10 +1825,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E477E4AB-7195-46E9-AE4C-74460C3E66C8}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,25 +1953,25 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>20</v>
@@ -1996,29 +1996,20 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
-        <v>25</v>
+      <c r="G4" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
-      </c>
-      <c r="L4">
-        <v>20</v>
-      </c>
-      <c r="M4">
-        <v>50</v>
-      </c>
-      <c r="N4">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2041,53 +2032,18 @@
         <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>20</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6" t="b">
         <v>1</v>
       </c>
     </row>
